--- a/CE/data/day_of_month.xlsx
+++ b/CE/data/day_of_month.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/SynologyDrive/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/SynologyDrive/DS/SkillFactory/CE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D4259F-51A5-2043-BE26-C2A463320AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29C4AB-39C1-3042-AAB0-715EFCC39799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="1480" windowWidth="21180" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>2022-11</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>2020-01</t>
   </si>
   <si>
@@ -170,22 +167,17 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>р.д.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,27 +199,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -236,8 +213,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,207 +556,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3180A-0DA9-2448-A74C-A29289F62F4E}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1">
         <v>23</v>
       </c>
     </row>
@@ -787,7 +769,7 @@
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>15</v>
       </c>
     </row>
@@ -795,7 +777,7 @@
       <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>19</v>
       </c>
     </row>
@@ -803,7 +785,7 @@
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>22</v>
       </c>
     </row>
@@ -811,7 +793,7 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>22</v>
       </c>
     </row>
@@ -819,7 +801,7 @@
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>19</v>
       </c>
     </row>
@@ -827,7 +809,7 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>21</v>
       </c>
     </row>
@@ -835,7 +817,7 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>22</v>
       </c>
     </row>
@@ -843,7 +825,7 @@
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>22</v>
       </c>
     </row>
@@ -851,7 +833,7 @@
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>22</v>
       </c>
     </row>
@@ -859,7 +841,7 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>21</v>
       </c>
     </row>
@@ -867,7 +849,7 @@
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>20</v>
       </c>
     </row>
@@ -875,7 +857,7 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>22</v>
       </c>
     </row>
@@ -883,15 +865,15 @@
       <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B38">
-        <v>15</v>
+      <c r="B38" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>19</v>
       </c>
     </row>
@@ -899,7 +881,7 @@
       <c r="A40" t="s">
         <v>15</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>22</v>
       </c>
     </row>
@@ -907,7 +889,7 @@
       <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>22</v>
       </c>
     </row>
@@ -915,7 +897,7 @@
       <c r="A42" t="s">
         <v>17</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>19</v>
       </c>
     </row>
@@ -923,7 +905,7 @@
       <c r="A43" t="s">
         <v>18</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>21</v>
       </c>
     </row>
@@ -931,7 +913,7 @@
       <c r="A44" t="s">
         <v>19</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>22</v>
       </c>
     </row>
@@ -939,7 +921,7 @@
       <c r="A45" t="s">
         <v>20</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>22</v>
       </c>
     </row>
@@ -947,7 +929,7 @@
       <c r="A46" t="s">
         <v>21</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>22</v>
       </c>
     </row>
@@ -955,7 +937,7 @@
       <c r="A47" t="s">
         <v>22</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>21</v>
       </c>
     </row>
@@ -963,7 +945,7 @@
       <c r="A48" t="s">
         <v>23</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>20</v>
       </c>
     </row>
@@ -971,12 +953,12 @@
       <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CE/data/day_of_month.xlsx
+++ b/CE/data/day_of_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/SynologyDrive/DS/SkillFactory/CE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29C4AB-39C1-3042-AAB0-715EFCC39799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A4DFF4-FE80-C844-A447-65465DBF5DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="1480" windowWidth="21180" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,10 @@
     <t>2019-12</t>
   </si>
   <si>
+    <t>р.д.</t>
+  </si>
+  <si>
     <t>Дата</t>
-  </si>
-  <si>
-    <t>р.д.</t>
   </si>
 </sst>
 </file>
@@ -556,9 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3180A-0DA9-2448-A74C-A29289F62F4E}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -567,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/CE/data/day_of_month.xlsx
+++ b/CE/data/day_of_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/SynologyDrive/DS/SkillFactory/CE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A4DFF4-FE80-C844-A447-65465DBF5DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80E6CA-B108-E844-AB72-53104DA21AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="1480" windowWidth="21180" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>2021-01</t>
   </si>
@@ -170,6 +170,78 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>2018-02</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-08</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2017-10</t>
+  </si>
+  <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>2017-12</t>
   </si>
 </sst>
 </file>
@@ -554,9 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3180A-0DA9-2448-A74C-A29289F62F4E}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -573,7 +647,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1">
         <v>17</v>
@@ -581,63 +655,63 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
         <v>21</v>
@@ -645,31 +719,31 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>17</v>
@@ -677,7 +751,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>19</v>
@@ -685,111 +759,111 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
         <v>22</v>
@@ -797,31 +871,31 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1">
         <v>22</v>
@@ -829,23 +903,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1">
         <v>20</v>
@@ -853,7 +927,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1">
         <v>22</v>
@@ -861,15 +935,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1">
         <v>19</v>
@@ -877,15 +951,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1">
         <v>22</v>
@@ -893,15 +967,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1">
         <v>17</v>
-      </c>
-      <c r="B42" s="1">
-        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1">
         <v>21</v>
@@ -909,23 +983,23 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1">
         <v>22</v>
@@ -933,15 +1007,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1">
         <v>20</v>
@@ -949,9 +1023,201 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B73" s="1">
         <v>22</v>
       </c>
     </row>

--- a/CE/data/day_of_month.xlsx
+++ b/CE/data/day_of_month.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/SynologyDrive/DS/SkillFactory/CE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/!SkillFactory/CE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80E6CA-B108-E844-AB72-53104DA21AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6ECBAC-8CF5-0C47-8FD6-1A741C144295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1480" windowWidth="21180" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -20,234 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>2022-12</t>
-  </si>
-  <si>
-    <t>2022-01</t>
-  </si>
-  <si>
-    <t>2022-02</t>
-  </si>
-  <si>
-    <t>2022-03</t>
-  </si>
-  <si>
-    <t>2022-04</t>
-  </si>
-  <si>
-    <t>2022-05</t>
-  </si>
-  <si>
-    <t>2022-06</t>
-  </si>
-  <si>
-    <t>2022-07</t>
-  </si>
-  <si>
-    <t>2022-08</t>
-  </si>
-  <si>
-    <t>2022-09</t>
-  </si>
-  <si>
-    <t>2022-10</t>
-  </si>
-  <si>
-    <t>2022-11</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>р.д.</t>
   </si>
   <si>
     <t>Дата</t>
   </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,11 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -626,596 +414,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3180A-0DA9-2448-A74C-A29289F62F4E}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>62</v>
+      <c r="A2" s="2">
+        <v>42736</v>
       </c>
       <c r="B2" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>63</v>
+      <c r="A3" s="2">
+        <v>42767</v>
       </c>
       <c r="B3" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>64</v>
+      <c r="A4" s="2">
+        <v>42795</v>
       </c>
       <c r="B4" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>65</v>
+      <c r="A5" s="2">
+        <v>42826</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>66</v>
+      <c r="A6" s="2">
+        <v>42856</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>67</v>
+      <c r="A7" s="2">
+        <v>42887</v>
       </c>
       <c r="B7" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>68</v>
+      <c r="A8" s="2">
+        <v>42917</v>
       </c>
       <c r="B8" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>69</v>
+      <c r="A9" s="2">
+        <v>42948</v>
       </c>
       <c r="B9" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>70</v>
+      <c r="A10" s="2">
+        <v>42979</v>
       </c>
       <c r="B10" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
+      <c r="A11" s="2">
+        <v>43009</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>72</v>
+      <c r="A12" s="2">
+        <v>43040</v>
       </c>
       <c r="B12" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>73</v>
+      <c r="A13" s="2">
+        <v>43070</v>
       </c>
       <c r="B13" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>50</v>
+      <c r="A14" s="2">
+        <v>43101</v>
       </c>
       <c r="B14" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
+      <c r="A15" s="2">
+        <v>43132</v>
       </c>
       <c r="B15" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>52</v>
+      <c r="A16" s="2">
+        <v>43160</v>
       </c>
       <c r="B16" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>53</v>
+      <c r="A17" s="2">
+        <v>43191</v>
       </c>
       <c r="B17" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
+      <c r="A18" s="2">
+        <v>43221</v>
       </c>
       <c r="B18" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
+      <c r="A19" s="2">
+        <v>43252</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>56</v>
+      <c r="A20" s="2">
+        <v>43282</v>
       </c>
       <c r="B20" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>57</v>
+      <c r="A21" s="2">
+        <v>43313</v>
       </c>
       <c r="B21" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>58</v>
+      <c r="A22" s="2">
+        <v>43344</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>59</v>
+      <c r="A23" s="2">
+        <v>43374</v>
       </c>
       <c r="B23" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>60</v>
+      <c r="A24" s="2">
+        <v>43405</v>
       </c>
       <c r="B24" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="A25" s="2">
+        <v>43435</v>
       </c>
       <c r="B25" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>36</v>
+      <c r="A26" s="2">
+        <v>43466</v>
       </c>
       <c r="B26" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>37</v>
+      <c r="A27" s="2">
+        <v>43497</v>
       </c>
       <c r="B27" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>38</v>
+      <c r="A28" s="2">
+        <v>43525</v>
       </c>
       <c r="B28" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>39</v>
+      <c r="A29" s="2">
+        <v>43556</v>
       </c>
       <c r="B29" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>40</v>
+      <c r="A30" s="2">
+        <v>43586</v>
       </c>
       <c r="B30" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>41</v>
+      <c r="A31" s="2">
+        <v>43617</v>
       </c>
       <c r="B31" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>42</v>
+      <c r="A32" s="2">
+        <v>43647</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>43</v>
+      <c r="A33" s="2">
+        <v>43678</v>
       </c>
       <c r="B33" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>44</v>
+      <c r="A34" s="2">
+        <v>43709</v>
       </c>
       <c r="B34" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>45</v>
+      <c r="A35" s="2">
+        <v>43739</v>
       </c>
       <c r="B35" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>46</v>
+      <c r="A36" s="2">
+        <v>43770</v>
       </c>
       <c r="B36" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>47</v>
+      <c r="A37" s="2">
+        <v>43800</v>
       </c>
       <c r="B37" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>24</v>
+      <c r="A38" s="2">
+        <v>43831</v>
       </c>
       <c r="B38" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>25</v>
+      <c r="A39" s="2">
+        <v>43862</v>
       </c>
       <c r="B39" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>26</v>
+      <c r="A40" s="2">
+        <v>43891</v>
       </c>
       <c r="B40" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>27</v>
+      <c r="A41" s="2">
+        <v>43922</v>
       </c>
       <c r="B41" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>28</v>
+      <c r="A42" s="2">
+        <v>43952</v>
       </c>
       <c r="B42" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>29</v>
+      <c r="A43" s="2">
+        <v>43983</v>
       </c>
       <c r="B43" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>30</v>
+      <c r="A44" s="2">
+        <v>44013</v>
       </c>
       <c r="B44" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>31</v>
+      <c r="A45" s="2">
+        <v>44044</v>
       </c>
       <c r="B45" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>32</v>
+      <c r="A46" s="2">
+        <v>44075</v>
       </c>
       <c r="B46" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>33</v>
+      <c r="A47" s="2">
+        <v>44105</v>
       </c>
       <c r="B47" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>34</v>
+      <c r="A48" s="2">
+        <v>44136</v>
       </c>
       <c r="B48" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>35</v>
+      <c r="A49" s="2">
+        <v>44166</v>
       </c>
       <c r="B49" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>0</v>
+      <c r="A50" s="2">
+        <v>44197</v>
       </c>
       <c r="B50" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1</v>
+      <c r="A51" s="2">
+        <v>44228</v>
       </c>
       <c r="B51" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>2</v>
+      <c r="A52" s="2">
+        <v>44256</v>
       </c>
       <c r="B52" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>3</v>
+      <c r="A53" s="2">
+        <v>44287</v>
       </c>
       <c r="B53" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>4</v>
+      <c r="A54" s="2">
+        <v>44317</v>
       </c>
       <c r="B54" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>5</v>
+      <c r="A55" s="2">
+        <v>44348</v>
       </c>
       <c r="B55" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>6</v>
+      <c r="A56" s="2">
+        <v>44378</v>
       </c>
       <c r="B56" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>7</v>
+      <c r="A57" s="2">
+        <v>44409</v>
       </c>
       <c r="B57" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>8</v>
+      <c r="A58" s="2">
+        <v>44440</v>
       </c>
       <c r="B58" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>9</v>
+      <c r="A59" s="2">
+        <v>44470</v>
       </c>
       <c r="B59" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>10</v>
+      <c r="A60" s="2">
+        <v>44501</v>
       </c>
       <c r="B60" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>11</v>
+      <c r="A61" s="2">
+        <v>44531</v>
       </c>
       <c r="B61" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>13</v>
+      <c r="A62" s="2">
+        <v>44562</v>
       </c>
       <c r="B62" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>14</v>
+      <c r="A63" s="2">
+        <v>44593</v>
       </c>
       <c r="B63" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>15</v>
+      <c r="A64" s="2">
+        <v>44621</v>
       </c>
       <c r="B64" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>16</v>
+      <c r="A65" s="2">
+        <v>44652</v>
       </c>
       <c r="B65" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>17</v>
+      <c r="A66" s="2">
+        <v>44682</v>
       </c>
       <c r="B66" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>18</v>
+      <c r="A67" s="2">
+        <v>44713</v>
       </c>
       <c r="B67" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>19</v>
+      <c r="A68" s="2">
+        <v>44743</v>
       </c>
       <c r="B68" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>20</v>
+      <c r="A69" s="2">
+        <v>44774</v>
       </c>
       <c r="B69" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>21</v>
+      <c r="A70" s="2">
+        <v>44805</v>
       </c>
       <c r="B70" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>22</v>
+      <c r="A71" s="2">
+        <v>44835</v>
       </c>
       <c r="B71" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>23</v>
+      <c r="A72" s="2">
+        <v>44866</v>
       </c>
       <c r="B72" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>12</v>
+      <c r="A73" s="2">
+        <v>44896</v>
       </c>
       <c r="B73" s="1">
         <v>22</v>

--- a/CE/data/day_of_month.xlsx
+++ b/CE/data/day_of_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/!SkillFactory/CE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6ECBAC-8CF5-0C47-8FD6-1A741C144295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDD1136-786A-1245-9B2B-2515DC1F7B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,7 +936,7 @@
         <v>44621</v>
       </c>
       <c r="B64" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">

--- a/CE/data/day_of_month.xlsx
+++ b/CE/data/day_of_month.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/!SkillFactory/CE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/SynologyDrive/SkillFactory/CE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDD1136-786A-1245-9B2B-2515DC1F7B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4CCCEA-A6AB-6841-9D62-A002BB9AB1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -70,12 +70,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3180A-0DA9-2448-A74C-A29289F62F4E}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,6 +1015,102 @@
         <v>22</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B74" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B75" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B76" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B77" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B78" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B79" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B80" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B81" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B82" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B83" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B84" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B85" s="4">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
